--- a/sputnik/personal/ee/168ee.xlsx
+++ b/sputnik/personal/ee/168ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,12 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,10 +39,22 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>переплата 1,39</t>
-  </si>
-  <si>
-    <t>нет данных</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итог за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -56,9 +62,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,13 +91,6 @@
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -145,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -158,27 +157,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -488,420 +483,410 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43232</v>
+        <v>43372</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>1732</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>2232</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>839</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43274</v>
+      <c r="C3" s="3">
+        <v>1023</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>43504</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>1832</v>
+        <v>2415</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D11" si="0">C4-C2</f>
-        <v>100</v>
+        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
+        <v>183</v>
       </c>
       <c r="E4" s="6">
-        <v>4.29</v>
+        <v>4.57</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F14" si="1">D4*E4</f>
-        <v>429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+        <f t="shared" ref="F4:F7" si="1">D4*E4</f>
+        <v>836.31000000000006</v>
+      </c>
+      <c r="G4" s="8">
+        <f>SUM(F4,F5)</f>
+        <v>1003.6100000000001</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>939</v>
+        <v>1093</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E5" s="6">
-        <v>2.17</v>
+        <v>2.39</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="1"/>
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43295</v>
+        <v>167.3</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>43656</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>2032</v>
+        <v>2505</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f>C6-C4</f>
+        <v>90</v>
       </c>
       <c r="E6" s="6">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>411.3</v>
+      </c>
+      <c r="G6" s="8">
+        <f>SUM(F6,F7)</f>
+        <v>722</v>
+      </c>
+      <c r="H6" s="8">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>981</v>
+        <v>1123</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="E7" s="6">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="1"/>
-        <v>98.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43372</v>
+        <v>310.7</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>43766</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="3">
-        <v>2232</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
       </c>
       <c r="E8" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="11">
+        <v>882.8</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(F8,F9)</f>
+        <v>882.8</v>
+      </c>
+      <c r="H8" s="8">
+        <v>882.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
-        <v>1023</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>42</v>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
       </c>
       <c r="E9" s="6">
-        <v>2.35</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>98.7</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
+        <f>D9*E9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>43504</v>
+      <c r="A10" s="10">
+        <v>43822</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3">
-        <v>2415</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>183</v>
-      </c>
-      <c r="E10" s="10">
-        <v>4.57</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="1"/>
-        <v>836.31000000000006</v>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="11">
+        <v>568.5</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(F10,F11)</f>
+        <v>568.5</v>
+      </c>
+      <c r="H10" s="8">
+        <v>568.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3">
-        <v>1093</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="E11" s="10">
-        <v>2.39</v>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="1"/>
-        <v>167.3</v>
-      </c>
+        <f>D11*E11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="A12" s="10">
+        <v>43896</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="11">
+        <v>568.5</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(F12,F13)</f>
+        <v>568.5</v>
+      </c>
+      <c r="H12" s="8">
+        <v>568.5</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>43656</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2505</v>
-      </c>
-      <c r="D13" s="3">
-        <f>C13-C10</f>
-        <v>90</v>
-      </c>
-      <c r="E13" s="10">
-        <v>4.57</v>
+        <v>1</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="1"/>
-        <v>411.3</v>
-      </c>
+        <f>D13*E13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="10">
+        <v>43910</v>
+      </c>
       <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="11">
+        <v>2336.3000000000002</v>
+      </c>
+      <c r="G14" s="8">
+        <f>SUM(F14,F15)</f>
+        <v>2336.3000000000002</v>
+      </c>
+      <c r="H14" s="8">
+        <v>2336.3000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="3">
-        <v>1123</v>
-      </c>
-      <c r="D14" s="3">
-        <v>130</v>
-      </c>
-      <c r="E14" s="10">
-        <v>2.39</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="1"/>
-        <v>310.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>43766</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="10">
-        <v>4.49</v>
-      </c>
-      <c r="F15" s="13">
-        <v>882.8</v>
-      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="6">
+        <f>D15*E15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>10</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="10">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F16" s="6">
-        <f>D16*E16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>43822</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="10">
-        <v>4.49</v>
-      </c>
-      <c r="F17" s="13">
-        <v>568.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="10">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F18" s="6">
-        <f>D18*E18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="8">
+        <f>SUM(G4:G15)</f>
+        <v>6081.71</v>
+      </c>
+      <c r="H16" s="8">
+        <f>SUM(H4:H15)</f>
+        <v>6083.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8">
+        <f>SUM(H16,-G16)</f>
+        <v>1.3900000000003274</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/168ee.xlsx
+++ b/sputnik/personal/ee/168ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -483,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -856,36 +856,84 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
+      <c r="A16" s="10">
+        <v>43934</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="11">
+        <v>3650</v>
+      </c>
+      <c r="G16" s="8">
+        <f>SUM(F16,F17)</f>
+        <v>3650</v>
+      </c>
+      <c r="H16" s="8">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="6">
+        <f>D17*E17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="8">
-        <f>SUM(G4:G15)</f>
-        <v>6081.71</v>
-      </c>
-      <c r="H16" s="8">
-        <f>SUM(H4:H15)</f>
-        <v>6083.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="3" t="s">
+      <c r="G18" s="8">
+        <f>SUM(G4:G17)</f>
+        <v>9731.7099999999991</v>
+      </c>
+      <c r="H18" s="8">
+        <f>SUM(H4:H17)</f>
+        <v>9733.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8">
-        <f>SUM(H16,-G16)</f>
-        <v>1.3900000000003274</v>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8">
+        <f>SUM(H18,-G18)</f>
+        <v>1.3900000000012369</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/168ee.xlsx
+++ b/sputnik/personal/ee/168ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -483,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -904,35 +904,82 @@
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
+      <c r="A18" s="10">
+        <v>43963</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="12">
+        <v>4325</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>3344.4</v>
+      </c>
+      <c r="H18" s="8">
+        <v>3344.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12">
+        <v>2454</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="6">
+        <f>D19*E19</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="8">
-        <f>SUM(G4:G17)</f>
-        <v>9731.7099999999991</v>
-      </c>
-      <c r="H18" s="8">
-        <f>SUM(H4:H17)</f>
-        <v>9733.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="3" t="s">
+      <c r="G20" s="8">
+        <f>SUM(G4:G19)</f>
+        <v>13076.109999999999</v>
+      </c>
+      <c r="H20" s="8">
+        <f>SUM(H4:H19)</f>
+        <v>13077.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8">
-        <f>SUM(H18,-G18)</f>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8">
+        <f>SUM(H20,-G20)</f>
         <v>1.3900000000012369</v>
       </c>
     </row>

--- a/sputnik/personal/ee/168ee.xlsx
+++ b/sputnik/personal/ee/168ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -483,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -951,36 +951,87 @@
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
+      <c r="A20" s="10">
+        <v>44008</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12">
+        <v>4625</v>
+      </c>
+      <c r="D20" s="12">
+        <f>SUM(C20,-C18)</f>
+        <v>300</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F20" s="11">
+        <f>D20*E20</f>
+        <v>1347</v>
+      </c>
+      <c r="G20" s="8">
+        <f>SUM(F20,F21)</f>
+        <v>1833</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="12">
+        <v>2654</v>
+      </c>
+      <c r="D21" s="12">
+        <f>SUM(C21,-C19)</f>
+        <v>200</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F21" s="6">
+        <f>D21*E21</f>
+        <v>486.00000000000006</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="8">
-        <f>SUM(G4:G19)</f>
-        <v>13076.109999999999</v>
-      </c>
-      <c r="H20" s="8">
-        <f>SUM(H4:H19)</f>
-        <v>13077.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="3" t="s">
+      <c r="G22" s="8">
+        <f>SUM(G4:G21)</f>
+        <v>14909.109999999999</v>
+      </c>
+      <c r="H22" s="8">
+        <f>SUM(H4:H21)</f>
+        <v>14902.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8">
-        <f>SUM(H20,-G20)</f>
-        <v>1.3900000000012369</v>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8">
+        <f>SUM(H22,-G22)</f>
+        <v>-6.6099999999987631</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/168ee.xlsx
+++ b/sputnik/personal/ee/168ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -483,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1002,35 +1002,137 @@
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
+      <c r="A22" s="10">
+        <v>44043</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
+        <v>4725</v>
+      </c>
+      <c r="D22" s="12">
+        <f>SUM(C22,-C20)</f>
+        <v>100</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="11">
+        <f>D22*E22</f>
+        <v>471</v>
+      </c>
+      <c r="G22" s="8">
+        <f>SUM(F22,F23)</f>
+        <v>726</v>
+      </c>
+      <c r="H22" s="8">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="12">
+        <v>2754</v>
+      </c>
+      <c r="D23" s="12">
+        <f>SUM(C23,-C21)</f>
+        <v>100</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="6">
+        <f>D23*E23</f>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>44043</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="12">
+        <v>5025</v>
+      </c>
+      <c r="D24" s="12">
+        <f>SUM(C24,-C22)</f>
+        <v>300</v>
+      </c>
+      <c r="E24" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="11">
+        <f>D24*E24</f>
+        <v>1413</v>
+      </c>
+      <c r="G24" s="8">
+        <f>SUM(F24,F25)</f>
+        <v>1413</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12">
+        <v>2754</v>
+      </c>
+      <c r="D25" s="12">
+        <f>SUM(C25,-C23)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="6">
+        <f>D25*E25</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G26" s="8">
         <f>SUM(G4:G21)</f>
         <v>14909.109999999999</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H26" s="8">
         <f>SUM(H4:H21)</f>
         <v>14902.5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="3" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8">
-        <f>SUM(H22,-G22)</f>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8">
+        <f>SUM(H26,-G26)</f>
         <v>-6.6099999999987631</v>
       </c>
     </row>

--- a/sputnik/personal/ee/168ee.xlsx
+++ b/sputnik/personal/ee/168ee.xlsx
@@ -485,8 +485,8 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -944,7 +944,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F19" s="6">
-        <f>D19*E19</f>
+        <f t="shared" ref="F19:F25" si="2">D19*E19</f>
         <v>0</v>
       </c>
       <c r="G19" s="8"/>
@@ -961,14 +961,14 @@
         <v>4625</v>
       </c>
       <c r="D20" s="12">
-        <f>SUM(C20,-C18)</f>
+        <f t="shared" ref="D20:D25" si="3">SUM(C20,-C18)</f>
         <v>300</v>
       </c>
       <c r="E20" s="6">
         <v>4.49</v>
       </c>
       <c r="F20" s="11">
-        <f>D20*E20</f>
+        <f t="shared" si="2"/>
         <v>1347</v>
       </c>
       <c r="G20" s="8">
@@ -988,14 +988,14 @@
         <v>2654</v>
       </c>
       <c r="D21" s="12">
-        <f>SUM(C21,-C19)</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="E21" s="6">
         <v>2.4300000000000002</v>
       </c>
       <c r="F21" s="6">
-        <f>D21*E21</f>
+        <f t="shared" si="2"/>
         <v>486.00000000000006</v>
       </c>
       <c r="G21" s="8"/>
@@ -1012,14 +1012,14 @@
         <v>4725</v>
       </c>
       <c r="D22" s="12">
-        <f>SUM(C22,-C20)</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E22" s="6">
         <v>4.71</v>
       </c>
       <c r="F22" s="11">
-        <f>D22*E22</f>
+        <f t="shared" si="2"/>
         <v>471</v>
       </c>
       <c r="G22" s="8">
@@ -1039,14 +1039,14 @@
         <v>2754</v>
       </c>
       <c r="D23" s="12">
-        <f>SUM(C23,-C21)</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E23" s="6">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="6">
-        <f>D23*E23</f>
+        <f t="shared" si="2"/>
         <v>254.99999999999997</v>
       </c>
       <c r="G23" s="8"/>
@@ -1054,31 +1054,31 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>44043</v>
+        <v>44091</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="12">
-        <v>5025</v>
+        <v>4925</v>
       </c>
       <c r="D24" s="12">
-        <f>SUM(C24,-C22)</f>
-        <v>300</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="E24" s="6">
         <v>4.71</v>
       </c>
       <c r="F24" s="11">
-        <f>D24*E24</f>
-        <v>1413</v>
+        <f t="shared" si="2"/>
+        <v>942</v>
       </c>
       <c r="G24" s="8">
         <f>SUM(F24,F25)</f>
-        <v>1413</v>
+        <v>1197</v>
       </c>
       <c r="H24" s="8">
-        <v>1413</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1087,18 +1087,18 @@
         <v>1</v>
       </c>
       <c r="C25" s="12">
-        <v>2754</v>
+        <v>2854</v>
       </c>
       <c r="D25" s="12">
-        <f>SUM(C25,-C23)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="E25" s="6">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="6">
-        <f>D25*E25</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>

--- a/sputnik/personal/ee/168ee.xlsx
+++ b/sputnik/personal/ee/168ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -483,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1104,35 +1104,86 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
+      <c r="A26" s="10">
+        <v>44153</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="12">
+        <v>5175</v>
+      </c>
+      <c r="D26" s="12">
+        <f t="shared" ref="D26:D27" si="4">SUM(C26,-C24)</f>
+        <v>250</v>
+      </c>
+      <c r="E26" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="11">
+        <f t="shared" ref="F26:F27" si="5">D26*E26</f>
+        <v>1177.5</v>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(F26,F27)</f>
+        <v>1330.5</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1330.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="12">
+        <v>2914</v>
+      </c>
+      <c r="D27" s="12">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="5"/>
+        <v>153</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G28" s="8">
         <f>SUM(G4:G21)</f>
         <v>14909.109999999999</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H28" s="8">
         <f>SUM(H4:H21)</f>
         <v>14902.5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="3" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8">
-        <f>SUM(H26,-G26)</f>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8">
+        <f>SUM(H28,-G28)</f>
         <v>-6.6099999999987631</v>
       </c>
     </row>

--- a/sputnik/personal/ee/168ee.xlsx
+++ b/sputnik/personal/ee/168ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\23.01.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 25.01.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,22 +592,53 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="8"/>
+      <c r="A8" s="4">
+        <v>44209</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5475</v>
+      </c>
+      <c r="D8" s="3">
+        <f>SUM(C8,-C6)</f>
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F9" si="2">D8*E8</f>
+        <v>1413</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(F8,F9)</f>
+        <v>1668</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1668</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3014</v>
+      </c>
+      <c r="D9" s="3">
+        <f>SUM(C9,-C7)</f>
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="2"/>
+        <v>254.99999999999997</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
@@ -648,7 +679,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -658,7 +689,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -672,20 +703,54 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/168ee.xlsx
+++ b/sputnik/personal/ee/168ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\23.01.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 25.01.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.03.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -420,7 +420,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,14 +500,14 @@
         <v>4925</v>
       </c>
       <c r="D4" s="3">
-        <f>SUM(C4,-C2)</f>
+        <f t="shared" ref="D4:D11" si="0">SUM(C4,-C2)</f>
         <v>200</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F5" si="0">D4*E4</f>
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
         <v>942</v>
       </c>
       <c r="G4" s="8">
@@ -527,14 +527,14 @@
         <v>2854</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(C5,-C3)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>254.99999999999997</v>
       </c>
       <c r="G5" s="8"/>
@@ -551,14 +551,14 @@
         <v>5175</v>
       </c>
       <c r="D6" s="3">
-        <f>SUM(C6,-C4)</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F7" si="1">D6*E6</f>
+        <f t="shared" ref="F6:F7" si="2">D6*E6</f>
         <v>1177.5</v>
       </c>
       <c r="G6" s="8">
@@ -578,14 +578,14 @@
         <v>2914</v>
       </c>
       <c r="D7" s="3">
-        <f>SUM(C7,-C5)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="G7" s="8"/>
@@ -602,14 +602,14 @@
         <v>5475</v>
       </c>
       <c r="D8" s="3">
-        <f>SUM(C8,-C6)</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="2">D8*E8</f>
+        <f t="shared" ref="F8:F9" si="3">D8*E8</f>
         <v>1413</v>
       </c>
       <c r="G8" s="8">
@@ -629,36 +629,67 @@
         <v>3014</v>
       </c>
       <c r="D9" s="3">
-        <f>SUM(C9,-C7)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>254.99999999999997</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="8"/>
+      <c r="A10" s="4">
+        <v>44305</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5775</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F11" si="4">D10*E10</f>
+        <v>1413</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(F10,F11)</f>
+        <v>1668</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1668</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="8"/>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3114</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="4"/>
+        <v>254.99999999999997</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>

--- a/sputnik/personal/ee/168ee.xlsx
+++ b/sputnik/personal/ee/168ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.03.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.05.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -420,7 +420,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,22 +694,53 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="8"/>
+      <c r="A12" s="4">
+        <v>44340</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5975</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="5">SUM(C12,-C10)</f>
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:F13" si="6">D12*E12</f>
+        <v>942</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(F12,F13)</f>
+        <v>1452</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1452</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="8"/>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3314</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="6"/>
+        <v>509.99999999999994</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>

--- a/sputnik/personal/ee/168ee.xlsx
+++ b/sputnik/personal/ee/168ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.05.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 28.06.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,23 +745,54 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="8"/>
+      <c r="A14" s="4">
+        <v>44377</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6175</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="7">SUM(C14,-C12)</f>
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14:F15" si="8">D14*E14</f>
+        <v>942</v>
+      </c>
+      <c r="G14" s="8">
+        <f>SUM(F14,F15)</f>
+        <v>1197</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1197</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="3"/>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3414</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="8"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -771,7 +802,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -785,14 +816,24 @@
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -801,8 +842,8 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -811,8 +852,28 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/168ee.xlsx
+++ b/sputnik/personal/ee/168ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 28.06.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.09.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,23 +796,54 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="8"/>
+      <c r="A16" s="4">
+        <v>44467</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6285</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="9">SUM(C16,-C14)</f>
+        <v>110</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ref="F16:F17" si="10">D16*E16</f>
+        <v>545.6</v>
+      </c>
+      <c r="G16" s="8">
+        <f>SUM(F16,F17)</f>
+        <v>679.6</v>
+      </c>
+      <c r="H16" s="8">
+        <v>679.6</v>
+      </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="3"/>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3464</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="10"/>
+        <v>134</v>
+      </c>
+      <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -822,7 +853,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -836,24 +867,24 @@
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
@@ -862,8 +893,8 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
@@ -872,8 +903,28 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
